--- a/Result/LSTM Multi/Manufacturing/USA.xlsx
+++ b/Result/LSTM Multi/Manufacturing/USA.xlsx
@@ -580,7 +580,7 @@
         <v>2017</v>
       </c>
       <c r="B2">
-        <v>11.71331691741943</v>
+        <v>11.76704406738281</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -588,7 +588,7 @@
         <v>2018</v>
       </c>
       <c r="B3">
-        <v>11.73187923431396</v>
+        <v>11.74594593048096</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -596,7 +596,7 @@
         <v>2019</v>
       </c>
       <c r="B4">
-        <v>11.77285099029541</v>
+        <v>11.78963661193848</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -604,7 +604,7 @@
         <v>2020</v>
       </c>
       <c r="B5">
-        <v>11.76247119903564</v>
+        <v>11.79726886749268</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -612,7 +612,7 @@
         <v>2021</v>
       </c>
       <c r="B6">
-        <v>11.78534889221191</v>
+        <v>11.80057716369629</v>
       </c>
     </row>
   </sheetData>
@@ -862,7 +862,7 @@
         <v>2022</v>
       </c>
       <c r="B2">
-        <v>11.4653148651123</v>
+        <v>11.53154945373535</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -870,7 +870,7 @@
         <v>2023</v>
       </c>
       <c r="B3">
-        <v>11.57050704956055</v>
+        <v>11.58158111572266</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -878,7 +878,7 @@
         <v>2024</v>
       </c>
       <c r="B4">
-        <v>11.67053318023682</v>
+        <v>11.69656753540039</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -886,7 +886,7 @@
         <v>2025</v>
       </c>
       <c r="B5">
-        <v>11.69225311279297</v>
+        <v>11.77658176422119</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -894,7 +894,7 @@
         <v>2026</v>
       </c>
       <c r="B6">
-        <v>11.75091552734375</v>
+        <v>11.82187080383301</v>
       </c>
     </row>
   </sheetData>
